--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,29 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>qspiders</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>actiTIME - Login</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>(build 40469)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,15 +73,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -114,7 +120,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -146,10 +152,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,7 +186,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -357,21 +361,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>